--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A210F727-EADD-483F-AC89-41E6B3F169C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5BF78-D1D2-4F73-AEE2-990F5D8FF6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
   <sheets>
     <sheet name="Intents" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>intent</t>
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>greetings.hi</t>
+  </si>
+  <si>
+    <t>Hi, how can I help you?; Hi, I hope you are doing well;</t>
+  </si>
+  <si>
+    <t>greetings.morning</t>
+  </si>
+  <si>
+    <t>Good morning, how can I help you?; Good morning, how may I help you?;Good morning, how may I help?</t>
+  </si>
+  <si>
+    <t>good evening; magandang gabi;</t>
+  </si>
+  <si>
+    <t>good morning; magandang umaga;</t>
+  </si>
+  <si>
+    <t>greetings.evening</t>
+  </si>
+  <si>
+    <t>hi; hello;</t>
+  </si>
+  <si>
+    <t>greetings.afternoon</t>
+  </si>
+  <si>
+    <t>good afternoon; magandang hapon;</t>
+  </si>
+  <si>
+    <t>Good evening, how can I help you?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_ml</t>
+  </si>
+  <si>
+    <t>what is machine learning?;</t>
+  </si>
+  <si>
+    <t>Good afternoon, how can I help you?;</t>
+  </si>
+  <si>
+    <t>Machine learning is the study of computer algorithms that can improve automatically through experience and by the use of data;</t>
+  </si>
+  <si>
+    <t>ask.what_is_pytorch</t>
+  </si>
+  <si>
+    <t>what is Pytorch?;</t>
+  </si>
+  <si>
+    <t>PyTorch is an open source machine learning framework based on the Torch library, used for applications such as computer vision and natural language processing, primarily developed by Facebook's AI Research lab.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_computer_vision</t>
+  </si>
+  <si>
+    <t>What is computer vision?;</t>
+  </si>
+  <si>
+    <t>Computer vision is an interdisciplinary scientific field that deals with how computers can gain high-level understanding from digital images or videos.;</t>
   </si>
 </sst>
 </file>
@@ -390,20 +456,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5BF78-D1D2-4F73-AEE2-990F5D8FF6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1849BDA-651A-4D02-96FA-117083D8C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>intent</t>
   </si>
@@ -65,9 +65,6 @@
     <t>greetings.evening</t>
   </si>
   <si>
-    <t>hi; hello;</t>
-  </si>
-  <si>
     <t>greetings.afternoon</t>
   </si>
   <si>
@@ -105,6 +102,18 @@
   </si>
   <si>
     <t>Computer vision is an interdisciplinary scientific field that deals with how computers can gain high-level understanding from digital images or videos.;</t>
+  </si>
+  <si>
+    <t>ask.who_are you</t>
+  </si>
+  <si>
+    <t>who are you?; what is your name?;</t>
+  </si>
+  <si>
+    <t>I'm John the geek! My job is to help you understand AI and Innovation</t>
+  </si>
+  <si>
+    <t>hi; hello; how are you doing?; how is it going?</t>
   </si>
 </sst>
 </file>
@@ -456,16 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -510,51 +519,62 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1849BDA-651A-4D02-96FA-117083D8C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CBEF8-459A-4707-9291-50659B3763BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>ask.what_is_ml</t>
   </si>
   <si>
-    <t>what is machine learning?;</t>
-  </si>
-  <si>
     <t>Good afternoon, how can I help you?;</t>
   </si>
   <si>
@@ -113,7 +110,10 @@
     <t>I'm John the geek! My job is to help you understand AI and Innovation</t>
   </si>
   <si>
-    <t>hi; hello; how are you doing?; how is it going?</t>
+    <t>hi; hello; how are you doing?; how is it going?; Hi?; Hello?</t>
+  </si>
+  <si>
+    <t>what is machine learning?; what is ML?;</t>
   </si>
 </sst>
 </file>
@@ -468,13 +468,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,43 +538,43 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CBEF8-459A-4707-9291-50659B3763BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B8D49-0A27-4737-A8F0-333831C5FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
   <sheets>
     <sheet name="Intents" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>intent</t>
   </si>
@@ -114,16 +114,527 @@
   </si>
   <si>
     <t>what is machine learning?; what is ML?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_image_classification</t>
+  </si>
+  <si>
+    <t>What is image classification?;</t>
+  </si>
+  <si>
+    <t>Image classification is a complex procedure which relies on different components.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_nuetral_network</t>
+  </si>
+  <si>
+    <t>What is nuetral network?;</t>
+  </si>
+  <si>
+    <t>A neural network is a network or circuit of biological neurons, or in a modern sense, an artificial neural network, composed of artificial neurons or nodes.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_logistic_regression</t>
+  </si>
+  <si>
+    <t>Logistic regression is a class of regression where the independent variable is used to predict the dependent variable.  ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_gradient_descent</t>
+  </si>
+  <si>
+    <t>What is logistic regression?;</t>
+  </si>
+  <si>
+    <t>What is  gradient descent?;</t>
+  </si>
+  <si>
+    <t>Gradient descent is by far the most popular optimization strategy used in machine learning and deep learning at the moment. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_gans</t>
+  </si>
+  <si>
+    <t>What is  gans?;</t>
+  </si>
+  <si>
+    <t>A generative adversarial network is a class of machine learning frameworks designed by Ian Goodfellow and his colleagues in June 2014.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_phyton</t>
+  </si>
+  <si>
+    <t>What is  phyton?;</t>
+  </si>
+  <si>
+    <t>Python is an interpreted high-level general-purpose programming language. </t>
+  </si>
+  <si>
+    <t>ask.what_is_data_analysis</t>
+  </si>
+  <si>
+    <t>What is  data analysis?;</t>
+  </si>
+  <si>
+    <t>Data analysis is a process of inspecting, cleansing, transforming, and modelling data with the goal of discovering useful information, informing conclusions, and supporting decision-making.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_matplotlib</t>
+  </si>
+  <si>
+    <t>What is matplotlib?;</t>
+  </si>
+  <si>
+    <t>Matplotlib is a plotting library for the Python programming language and its numerical mathematics extension NumPy.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_seaborn</t>
+  </si>
+  <si>
+    <t>What is seaborn?;</t>
+  </si>
+  <si>
+    <t>Seaborn is a Python data visualization library based on matplotlib. It provides a high-level interface for drawing attractive and informative statistical graphics.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_numpy</t>
+  </si>
+  <si>
+    <t>What is numpy?;</t>
+  </si>
+  <si>
+    <t>NumPy is the fundamental package for scientific computing in Python.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_tabular_data</t>
+  </si>
+  <si>
+    <t>What is tabular data?;</t>
+  </si>
+  <si>
+    <t>Tabular data is the simpler data you can feed to a machine learning model. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_numerical_analysis</t>
+  </si>
+  <si>
+    <t>What is numerical analysis?;</t>
+  </si>
+  <si>
+    <t>Numerical analysis is the study of algorithms that use numerical approximation for the problems of mathematical analysis. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_pandas</t>
+  </si>
+  <si>
+    <t>What is pandas?;</t>
+  </si>
+  <si>
+    <t>pandas is a software library written for the Python programming language for data manipulation and analysis. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_phyton_for_loops</t>
+  </si>
+  <si>
+    <t>What is phyton for loops?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Python for loops are used to loop through an iterable object (like a list, tuple, set, etc.) and perform the same action for each entry.;</t>
+  </si>
+  <si>
+    <t>What is scope in phyton?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_scope_in_phyton</t>
+  </si>
+  <si>
+    <t>The scope defines the accessibility of the python object. To access the particular variable in the code, the scope must be defined as it cannot be accessed from anywhere in the program.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_decorator_in_phyton</t>
+  </si>
+  <si>
+    <t>What is decorator in phyton?;</t>
+  </si>
+  <si>
+    <t>A decorator in Python is a function that takes another function as its argument, and returns yet another function .;</t>
+  </si>
+  <si>
+    <t>ask.what_is_generator_in_phyton</t>
+  </si>
+  <si>
+    <t>What is generator in phyton?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A generator is a special type of function which does not return a single value, instead, it returns an iterator object with a sequence of values.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_class_in_phyton</t>
+  </si>
+  <si>
+    <t>A class is a code template for creating objects. Objects have member variables and have behaviour associated with them. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_itertools_in_phyton</t>
+  </si>
+  <si>
+    <t>What is class in phyton?;</t>
+  </si>
+  <si>
+    <t>What is itertools in phyton?;</t>
+  </si>
+  <si>
+    <t>Python's Itertool is a module that provides various functions that work on iterators to produce complex iterators.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_tensors_in_phytorch</t>
+  </si>
+  <si>
+    <t>A PyTorch Tensor is basically the same as a numpy array: it does not know anything about deep learning or computational graphs or gradients, and is just a generic n-dimensional array to be used for arbitrary numeric computation.;</t>
+  </si>
+  <si>
+    <t>What is tensors in phyton?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_data_science</t>
+  </si>
+  <si>
+    <t>What is data science?;</t>
+  </si>
+  <si>
+    <t>Data science is an interdisciplinary field that uses scientific methods, processes, algorithms and systems to extract knowledge and insights from noisy, structured and unstructured data, and apply knowledge and actionable insights from data across a broad range of application domains.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_resnet_in_phytorch</t>
+  </si>
+  <si>
+    <t>What is resnet phytorch?;</t>
+  </si>
+  <si>
+    <t>ResNets are a common neural network architecture used for deep learning computer vision applications like object detection and image segmentation. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_linear_regression</t>
+  </si>
+  <si>
+    <t>What is linear regression?;</t>
+  </si>
+  <si>
+    <t>Linear regression is a basic and commonly used type of predictive analysis. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_deep_learning</t>
+  </si>
+  <si>
+    <t>What is deep learning?;</t>
+  </si>
+  <si>
+    <t>Deep learning is part of a broader family of machine learning methods based on artificial neural networks with representation learning.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_web_development</t>
+  </si>
+  <si>
+    <t>What is web development?;</t>
+  </si>
+  <si>
+    <t>Web development is the work involved in developing a website for the Internet or an intranet. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_data_structure</t>
+  </si>
+  <si>
+    <t>What is data structure?;</t>
+  </si>
+  <si>
+    <t>A data structure is a specialized format for organizing, processing, retrieving and storing data.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_html5</t>
+  </si>
+  <si>
+    <t>What is html5?;</t>
+  </si>
+  <si>
+    <t>HTML5 is a markup language used for structuring and presenting content on the World Wide Web.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_javascript</t>
+  </si>
+  <si>
+    <t>What is javascript?;</t>
+  </si>
+  <si>
+    <t>JavaScript, often abbreviated JS, is a programming language that is one of the core technologies of the World Wide Web, alongside HTML and CSS. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_css</t>
+  </si>
+  <si>
+    <t>What is css?;</t>
+  </si>
+  <si>
+    <t>Cascading Style Sheets is a style sheet language used for describing the presentation of a document written in a markup language such as HTML. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_nodejs</t>
+  </si>
+  <si>
+    <t>What is nodejs?;</t>
+  </si>
+  <si>
+    <t>Node.js is an open-source, cross-platform, back-end JavaScript runtime environment that runs on the V8 engine and executes JavaScript code outside a web browser.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_vuejs</t>
+  </si>
+  <si>
+    <t>What is vuejs?;</t>
+  </si>
+  <si>
+    <t>Vue.js is an open-source model–view–viewmodel front end JavaScript framework for building user interfaces and single-page applications.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_api</t>
+  </si>
+  <si>
+    <t>What is api?;</t>
+  </si>
+  <si>
+    <t>An application programming interface is a connection between computers or between computer programs. It is a type of software interface, offering a service to other pieces of software. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_unity</t>
+  </si>
+  <si>
+    <t>What is unity?;</t>
+  </si>
+  <si>
+    <t>Unity is a cross-platform game engine developed by Unity Technologies, first announced and released in June 2005 at Apple Inc.'s Worldwide Developers Conference as a Mac OS X-exclusive game engine.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_pygame</t>
+  </si>
+  <si>
+    <t>What is pygame?;</t>
+  </si>
+  <si>
+    <t>Pygame is a cross-platform set of Python modules designed for writing video games.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_supervised_learning</t>
+  </si>
+  <si>
+    <t>Supervised learning is the machine learning task of learning a function that maps an input to an output based on example input-output pairs.;</t>
+  </si>
+  <si>
+    <t>What is supervised learning?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_unsupervised_learning</t>
+  </si>
+  <si>
+    <t>What is unsupervised learning?;</t>
+  </si>
+  <si>
+    <t>Unsupervised learning is a type of algorithm that learns patterns from untagged data. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_jupyter_notebook</t>
+  </si>
+  <si>
+    <t>What is jupyter notebook?;</t>
+  </si>
+  <si>
+    <t>The Jupyter Notebook is the original web application for creating and sharing computational documents.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_jupyter_lab</t>
+  </si>
+  <si>
+    <t>JupyterLab is the latest web-based interactive development environment for notebooks, code, and data.;</t>
+  </si>
+  <si>
+    <t>What is jupyter lab?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_k_nearest_neighbor</t>
+  </si>
+  <si>
+    <t> the k-nearest neighbors algorithm is a non-parametric classification method first developed by Evelyn Fix and Joseph Hodges in 1951, and later expanded by Thomas Cover. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_tree_based_models</t>
+  </si>
+  <si>
+    <t>What is k nearest neighbor?;</t>
+  </si>
+  <si>
+    <t>What is tree based model?;</t>
+  </si>
+  <si>
+    <t>ree-based models use a decision tree to represent how different input variables can be used to predict a target value.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_hyperparameter_tuning</t>
+  </si>
+  <si>
+    <t>Hyperparameter tuning is choosing a set of optimal hyperparameters for a learning algorithm.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_hyperparameter</t>
+  </si>
+  <si>
+    <t>hyperparameter is a model argument whose value is set before the learning process begins. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_long_short_term_memory</t>
+  </si>
+  <si>
+    <t>What is hyeperparameter ?;</t>
+  </si>
+  <si>
+    <t>What is hyeperparameter tuning?;</t>
+  </si>
+  <si>
+    <t>Long Short-Term Memory (LSTM) networks are a type of recurrent neural network capable of learning order dependence in sequence prediction problems. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_multi_head_attention</t>
+  </si>
+  <si>
+    <t>What is long short term memory ?;</t>
+  </si>
+  <si>
+    <t>What is multi headed attention?;</t>
+  </si>
+  <si>
+    <t>Multi-head Attention is a module for attention mechanisms which runs through an attention mechanism several times in parallel.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_boosting</t>
+  </si>
+  <si>
+    <t>What is boosting?;</t>
+  </si>
+  <si>
+    <t>Boosting is an algorithm that helps in reducing variance and bias in a machine learning ensemble.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_automated_machine_learning</t>
+  </si>
+  <si>
+    <t>What is automated machine learning?;</t>
+  </si>
+  <si>
+    <t>Automated machine learning is the process of automating the tasks of applying machine learning to real-world problems. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_decision_trees</t>
+  </si>
+  <si>
+    <t>Decision Trees (DTs) are a non-parametric supervised learning method used for classification and regression.;</t>
+  </si>
+  <si>
+    <t>What is decision trees?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_extra_trees</t>
+  </si>
+  <si>
+    <t>What is extra trees?;</t>
+  </si>
+  <si>
+    <t>Extra Trees is an ensemble machine learning algorithm that combines the predictions from many decision trees.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_bootstrap</t>
+  </si>
+  <si>
+    <t>What is boot strap?;</t>
+  </si>
+  <si>
+    <t>Bootstrap is a free and open-source CSS framework directed at responsive, mobile-first front-end web development.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_bagging</t>
+  </si>
+  <si>
+    <t>Bagging, also known as bootstrap aggregation, is the ensemble learning method that is commonly used to reduce variance within a noisy dataset. ;</t>
+  </si>
+  <si>
+    <t>What is bagging?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_random_forest</t>
+  </si>
+  <si>
+    <t>What is random forest?;</t>
+  </si>
+  <si>
+    <t>Random forests or random decision forests are an ensemble learning method for classification, regression and other tasks that operates by constructing a multitude of decision trees at training time.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_xg_boost</t>
+  </si>
+  <si>
+    <t>XGBoost is an open-source software library which provides a regularizing gradient boosting framework for C++, Java, Python, R, Julia, Perl, and Scala. It works on Linux, Windows, and macOS.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_light_gbm</t>
+  </si>
+  <si>
+    <t>What is xgboost?;</t>
+  </si>
+  <si>
+    <t>What is light gbm?;</t>
+  </si>
+  <si>
+    <t>LightGBM, short for Light Gradient Boosting Machine, is a free and open source distributed gradient boosting framework for machine learning originally developed by Microsoft. ;</t>
+  </si>
+  <si>
+    <t>ask.what_is_catboost</t>
+  </si>
+  <si>
+    <t>What is catboost?;</t>
+  </si>
+  <si>
+    <t>CatBoost is an open-source software library developed by Yandex. It provides a gradient boosting framework which attempts to solve for Categorical features using a permutation driven alternative compared to the classical algorithm.;</t>
+  </si>
+  <si>
+    <t>What is gradient boosting?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_gradient_boosting</t>
+  </si>
+  <si>
+    <t>Gradient boosting is a machine learning technique used in regression and classification tasks, among others.;</t>
+  </si>
+  <si>
+    <t>ask.what_is_cart_algorithm</t>
+  </si>
+  <si>
+    <t>What is cart algorithm?;</t>
+  </si>
+  <si>
+    <t>Classification And Regression Trees (CART) algorithm is a classification algorithm for building a decision tree based on Gini's impurity index as splitting criterion.;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,8 +660,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +1090,624 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\hau-ai-powered-lms\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B8D49-0A27-4737-A8F0-333831C5FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A026F61-042C-44A3-8406-3FD5AF7282A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
   <sheets>
     <sheet name="Intents" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
   <si>
     <t>intent</t>
   </si>
@@ -618,6 +618,87 @@
   </si>
   <si>
     <t>Classification And Regression Trees (CART) algorithm is a classification algorithm for building a decision tree based on Gini's impurity index as splitting criterion.;</t>
+  </si>
+  <si>
+    <t>greetings.how_are_you</t>
+  </si>
+  <si>
+    <t>How are you doing?; how are you?</t>
+  </si>
+  <si>
+    <t>I'm good and the weather is nice here too.</t>
+  </si>
+  <si>
+    <t>greetings.where_are_you</t>
+  </si>
+  <si>
+    <t>Where are you right?; Where do you live?; Where are you located?;</t>
+  </si>
+  <si>
+    <t>I'm living at the metaverse;</t>
+  </si>
+  <si>
+    <t>greetings.tnx</t>
+  </si>
+  <si>
+    <t>Thank you; tnx; tks;thanks;salamat;</t>
+  </si>
+  <si>
+    <t>You're welcome and have a nice day; I got you mate!;</t>
+  </si>
+  <si>
+    <t>greetings.awesome</t>
+  </si>
+  <si>
+    <t>That is awesome; that's awesome; cool; interesting fact; super cool;</t>
+  </si>
+  <si>
+    <t>I know right!; I also think that its awesome;</t>
+  </si>
+  <si>
+    <t>ask.what_is_ai</t>
+  </si>
+  <si>
+    <t>What is AI?; describe ai; can you explain what is ai; can you explain what is artificial intelligence?;</t>
+  </si>
+  <si>
+    <t>Artificial intelligence is intelligence demonstrated by machines, as opposed to natural intelligence displayed by animals including humans. Some popular accounts use the term "artificial intelligence" to describe machines that mimic "cognitive" functions that humans associate with the human mind, such as "learning" and "problem solving", however, this definition is rejected by major AI researchers.</t>
+  </si>
+  <si>
+    <t>what is supervised learning; Describe supervised learning;</t>
+  </si>
+  <si>
+    <t>Supervised learning is the machine learning task of learning a function that maps an input to an output based on example input-output pairs. It infers a function from labeled training data consisting of a set of training examples.</t>
+  </si>
+  <si>
+    <t>what is unsupervised learning; Describe unsupervised learning;</t>
+  </si>
+  <si>
+    <t>Unsupervised learning is a type of algorithm that learns patterns from untagged data. The hope is that through mimicry, which is an important mode of learning in people, the machine is forced to build a compact internal representation of its world and then generate imaginative content from it.</t>
+  </si>
+  <si>
+    <t>what is deep learning; describe DL; describe deep learning; what is DL;</t>
+  </si>
+  <si>
+    <t>Deep learning (DL) is a type of machine learning based on artificial neural networks in which multiple layers of processing are used to extract progressively higher level features from data.</t>
+  </si>
+  <si>
+    <t>ask.test</t>
+  </si>
+  <si>
+    <t>test; testing; are you working;</t>
+  </si>
+  <si>
+    <t>I'm a bit offended when you challenge my intelligence;</t>
+  </si>
+  <si>
+    <t>ask.stupid</t>
+  </si>
+  <si>
+    <t>are you stupid?; are you an idiot?; are you a moron?;</t>
+  </si>
+  <si>
+    <t>Have you looked at the mirror recently?;</t>
   </si>
 </sst>
 </file>
@@ -660,10 +741,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,15 +1062,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1048,661 +1132,782 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>195</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" t="s">
-        <v>170</v>
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C76" t="s">
         <v>194</v>
       </c>
     </row>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A026F61-042C-44A3-8406-3FD5AF7282A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D0997-4584-46F6-9B1A-AE0B8A3E256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="225">
   <si>
     <t>intent</t>
   </si>
@@ -122,9 +122,6 @@
     <t>What is image classification?;</t>
   </si>
   <si>
-    <t>Image classification is a complex procedure which relies on different components.;</t>
-  </si>
-  <si>
     <t>ask.what_is_nuetral_network</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>ask.what_is_phyton</t>
   </si>
   <si>
-    <t>What is  phyton?;</t>
-  </si>
-  <si>
     <t>Python is an interpreted high-level general-purpose programming language. </t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>ask.what_is_phyton_for_loops</t>
   </si>
   <si>
-    <t>What is phyton for loops?;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Python for loops are used to loop through an iterable object (like a list, tuple, set, etc.) and perform the same action for each entry.;</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>A PyTorch Tensor is basically the same as a numpy array: it does not know anything about deep learning or computational graphs or gradients, and is just a generic n-dimensional array to be used for arbitrary numeric computation.;</t>
   </si>
   <si>
-    <t>What is tensors in phyton?;</t>
-  </si>
-  <si>
     <t>ask.what_is_data_science</t>
   </si>
   <si>
@@ -699,6 +687,27 @@
   </si>
   <si>
     <t>Have you looked at the mirror recently?;</t>
+  </si>
+  <si>
+    <t>ask.what_is_imbalanced_data</t>
+  </si>
+  <si>
+    <t>what does imbalance data mean in ML?; describe imbalanced data in machine learning?;</t>
+  </si>
+  <si>
+    <t>An imbalanced dataset is defined by great differences in the distribution of the classes in the dataset. This means that a dataset is biased towards a class in the dataset. If the dataset is biased towards one class, an algorithm trained on the same data will be biased towards the same class;</t>
+  </si>
+  <si>
+    <t>What are phyton for loops?;</t>
+  </si>
+  <si>
+    <t>What is  phyton?; can you describe python?; tell me about python;</t>
+  </si>
+  <si>
+    <t>What is tensors in phyton?; what are tensors in python?; what does tensor mean in machine learning;</t>
+  </si>
+  <si>
+    <t>Image classification is a supervised learning problem: define a set of target classes (objects to identify in images), and train a model to recognize them using labeled example photos;</t>
   </si>
 </sst>
 </file>
@@ -1062,17 +1071,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,112 +1152,112 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,612 +1312,623 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D0997-4584-46F6-9B1A-AE0B8A3E256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096B5C1-9204-4374-A0DB-590F8C2B913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="228">
   <si>
     <t>intent</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>Image classification is a supervised learning problem: define a set of target classes (objects to identify in images), and train a model to recognize them using labeled example photos;</t>
+  </si>
+  <si>
+    <t>greetings.smile</t>
+  </si>
+  <si>
+    <t>haha; hahaha; lol; :D; ^_^; ROFL; (rofl);</t>
+  </si>
+  <si>
+    <t>LOL</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,6 +1940,17 @@
         <v>220</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096B5C1-9204-4374-A0DB-590F8C2B913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA8873-AF17-4CA8-B455-26E68EED4B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t>intent</t>
   </si>
@@ -713,10 +713,19 @@
     <t>greetings.smile</t>
   </si>
   <si>
-    <t>haha; hahaha; lol; :D; ^_^; ROFL; (rofl);</t>
-  </si>
-  <si>
     <t>LOL</t>
+  </si>
+  <si>
+    <t>ask.what_is_dtle</t>
+  </si>
+  <si>
+    <t>DTEL stands for "Decision Trees and Ensemble Learning"</t>
+  </si>
+  <si>
+    <t>can you describe DTEL?; what is DTEL; describe DTEL;</t>
+  </si>
+  <si>
+    <t>haha; hahaha; lol; :D; ^_^; ROFL; (rofl); HAHAHA; hahaha;</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,10 +1954,21 @@
         <v>225</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" t="s">
         <v>226</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>227</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA8873-AF17-4CA8-B455-26E68EED4B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BEB70-771C-4FAF-9AD9-5F9C611ACDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="241">
   <si>
     <t>intent</t>
   </si>
@@ -726,6 +726,36 @@
   </si>
   <si>
     <t>haha; hahaha; lol; :D; ^_^; ROFL; (rofl); HAHAHA; hahaha;</t>
+  </si>
+  <si>
+    <t>ask.what_is_tensorflow</t>
+  </si>
+  <si>
+    <t>what is tensorflow?; describe tensorflow?; tell me something about Tensorflow?; define Tensorflow?; explain tensorflow?;</t>
+  </si>
+  <si>
+    <t>TensorFlow is a free and open-source software library for machine learning and artificial intelligence. It can be used across a range of tasks but has a particular focus on training and inference of deep neural networks. TensorFlow provides a collection of workflows to develop and train models using Python or JavaScript, and to easily deploy in the cloud, on-prem, in the browser, or on-device no matter what language you use. The tf. data API enables you to build complex input pipelines from simple, reusable pieces.</t>
+  </si>
+  <si>
+    <t>ask.what_is_react</t>
+  </si>
+  <si>
+    <t>ask.what_is_nlp</t>
+  </si>
+  <si>
+    <t>A table is an arrangement of information or data, typically in rows and columns, or possibly in a more complex structure. Tables are widely used in communication, research, and data analysis.</t>
+  </si>
+  <si>
+    <t>what is react?; what is react.js; what is React JS?; do you know react js?;</t>
+  </si>
+  <si>
+    <t>what is nlp?; describe NLP?; define NLP; explain NLP; can you explain NLP?;</t>
+  </si>
+  <si>
+    <t>NLP or Natural language processing is a subfield of linguistics, computer science, and artificial intelligence concerned with the interactions between computers and human language, in particular how to program computers to process and analyze large amounts of natural language data.</t>
+  </si>
+  <si>
+    <t>React is a free and open-source front-end JavaScript library for building user interfaces based on UI components. It is maintained by Meta and a community of individual developers and companies. React can be used as a base in the development of single-page or mobile applications.</t>
   </si>
 </sst>
 </file>
@@ -1089,16 +1119,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1971,8 +2001,52 @@
         <v>228</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BEB70-771C-4FAF-9AD9-5F9C611ACDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488DE68-EDC0-403E-8F64-C46F7712A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="244">
   <si>
     <t>intent</t>
   </si>
@@ -353,9 +353,6 @@
     <t>What is javascript?;</t>
   </si>
   <si>
-    <t>JavaScript, often abbreviated JS, is a programming language that is one of the core technologies of the World Wide Web, alongside HTML and CSS. ;</t>
-  </si>
-  <si>
     <t>ask.what_is_css</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
     <t>ask.what_is_tensorflow</t>
   </si>
   <si>
-    <t>what is tensorflow?; describe tensorflow?; tell me something about Tensorflow?; define Tensorflow?; explain tensorflow?;</t>
-  </si>
-  <si>
     <t>TensorFlow is a free and open-source software library for machine learning and artificial intelligence. It can be used across a range of tasks but has a particular focus on training and inference of deep neural networks. TensorFlow provides a collection of workflows to develop and train models using Python or JavaScript, and to easily deploy in the cloud, on-prem, in the browser, or on-device no matter what language you use. The tf. data API enables you to build complex input pipelines from simple, reusable pieces.</t>
   </si>
   <si>
@@ -749,13 +743,29 @@
     <t>what is react?; what is react.js; what is React JS?; do you know react js?;</t>
   </si>
   <si>
-    <t>what is nlp?; describe NLP?; define NLP; explain NLP; can you explain NLP?;</t>
-  </si>
-  <si>
     <t>NLP or Natural language processing is a subfield of linguistics, computer science, and artificial intelligence concerned with the interactions between computers and human language, in particular how to program computers to process and analyze large amounts of natural language data.</t>
   </si>
   <si>
     <t>React is a free and open-source front-end JavaScript library for building user interfaces based on UI components. It is maintained by Meta and a community of individual developers and companies. React can be used as a base in the development of single-page or mobile applications.</t>
+  </si>
+  <si>
+    <t>what is nlp?; describe NLP?; define NLP; explain NLP; can you explain NLP?; what is nlp;</t>
+  </si>
+  <si>
+    <t>what is python?; describe python; explain python; tell me something about python;</t>
+  </si>
+  <si>
+    <t>ask.what_is_python_pl</t>
+  </si>
+  <si>
+    <t>Python is an interpreted high-level general-purpose programming language. Its design philosophy emphasizes code readability with its use of significant indentation. Its language constructs as well as its object-oriented approach aim to help programmers write clear, logical code for small and large-scale projects</t>
+  </si>
+  <si>
+    <t>what is tensorflow; describe tensorflow; tell me something about Tensorflow; define Tensorflow; explain tensorflow; what is tensorflow?; what is TensorFlow framework?;</t>
+  </si>
+  <si>
+    <t>JavaScript, often abbreviated JS, is a programming language that is one of the core technologies of the World Wide Web, alongside HTML and CSS. ; What is JavaScript and why it is used?
+JavaScript is a text-based programming language used both on the client-side and server-side that allows you to make web pages interactive. Where HTML and CSS are languages that give structure and style to web pages, JavaScript gives web pages interactive elements that engage a user.;</t>
   </si>
 </sst>
 </file>
@@ -1119,16 +1129,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="156.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,79 +1210,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
         <v>197</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>198</v>
-      </c>
-      <c r="C9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
         <v>200</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
         <v>203</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
         <v>208</v>
-      </c>
-      <c r="C13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,32 +1290,32 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
         <v>212</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>213</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
         <v>215</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>216</v>
-      </c>
-      <c r="C16" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1500,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -1566,7 +1576,7 @@
         <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
@@ -1649,389 +1659,389 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="C48" t="s">
-        <v>106</v>
+      <c r="C48" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
         <v>113</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
         <v>116</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
         <v>122</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>129</v>
-      </c>
-      <c r="C56" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
         <v>131</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
         <v>137</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
         <v>141</v>
-      </c>
-      <c r="C60" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
         <v>143</v>
-      </c>
-      <c r="B61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
         <v>145</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
         <v>155</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
         <v>158</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
         <v>161</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
         <v>164</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>165</v>
-      </c>
-      <c r="C68" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
         <v>167</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>168</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
         <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
         <v>173</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>174</v>
-      </c>
-      <c r="C71" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
         <v>176</v>
-      </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
         <v>180</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
         <v>182</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>183</v>
-      </c>
-      <c r="C74" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
         <v>186</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" t="s">
         <v>189</v>
-      </c>
-      <c r="C76" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" t="s">
         <v>219</v>
-      </c>
-      <c r="C77" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
         <v>225</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C78" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" t="s">
         <v>227</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C79" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" t="s">
         <v>231</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="s">
         <v>237</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,7 +2052,18 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488DE68-EDC0-403E-8F64-C46F7712A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C9D0A-223D-4937-892A-84371EDB2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="247">
   <si>
     <t>intent</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>ask.what_is_javascript</t>
-  </si>
-  <si>
-    <t>What is javascript?;</t>
   </si>
   <si>
     <t>ask.what_is_css</t>
@@ -766,6 +763,18 @@
   <si>
     <t>JavaScript, often abbreviated JS, is a programming language that is one of the core technologies of the World Wide Web, alongside HTML and CSS. ; What is JavaScript and why it is used?
 JavaScript is a text-based programming language used both on the client-side and server-side that allows you to make web pages interactive. Where HTML and CSS are languages that give structure and style to web pages, JavaScript gives web pages interactive elements that engage a user.;</t>
+  </si>
+  <si>
+    <t>What is javascript?; what is js?; explain js; describe js; describe javascript; explain js;</t>
+  </si>
+  <si>
+    <t>ask.define_web_api</t>
+  </si>
+  <si>
+    <t>what is a web api?; can you explain the purpose of web api?; tell me something about web apis?; describe web apis;</t>
+  </si>
+  <si>
+    <t>Web API helps in enabling the development of HTTP services to reach out to client entities like browser, devices or tablets.</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,79 +1219,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
         <v>193</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
         <v>196</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
         <v>199</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
         <v>202</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
         <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
         <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,32 +1299,32 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" t="s">
         <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
         <v>211</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,7 +1379,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1510,7 +1519,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -1576,7 +1585,7 @@
         <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
@@ -1664,384 +1673,384 @@
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
         <v>106</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
         <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
         <v>127</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>128</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
         <v>133</v>
-      </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
         <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
         <v>140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
-      </c>
-      <c r="B61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
         <v>154</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>158</v>
-      </c>
-      <c r="C66" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
         <v>160</v>
-      </c>
-      <c r="B67" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>164</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>167</v>
-      </c>
-      <c r="C69" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
         <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
         <v>172</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>173</v>
-      </c>
-      <c r="C71" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
         <v>175</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
         <v>181</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
         <v>185</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" t="s">
         <v>188</v>
-      </c>
-      <c r="C76" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" t="s">
         <v>218</v>
-      </c>
-      <c r="C77" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" t="s">
         <v>224</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
         <v>226</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
         <v>230</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,18 +2061,29 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" t="s">
         <v>240</v>
       </c>
-      <c r="B84" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" t="s">
-        <v>241</v>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C9D0A-223D-4937-892A-84371EDB2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B5041-33CE-4C15-839D-C39A5A196E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="248">
   <si>
     <t>intent</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>Web API helps in enabling the development of HTTP services to reach out to client entities like browser, devices or tablets.</t>
+  </si>
+  <si>
+    <t>ask.</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,6 +2089,11 @@
         <v>246</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B5041-33CE-4C15-839D-C39A5A196E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E8A72-570B-4F05-8FFE-1235424BB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -86,16 +86,10 @@
     <t>ask.what_is_pytorch</t>
   </si>
   <si>
-    <t>what is Pytorch?;</t>
-  </si>
-  <si>
     <t>PyTorch is an open source machine learning framework based on the Torch library, used for applications such as computer vision and natural language processing, primarily developed by Facebook's AI Research lab.;</t>
   </si>
   <si>
     <t>ask.what_is_computer_vision</t>
-  </si>
-  <si>
-    <t>What is computer vision?;</t>
   </si>
   <si>
     <t>Computer vision is an interdisciplinary scientific field that deals with how computers can gain high-level understanding from digital images or videos.;</t>
@@ -778,6 +772,12 @@
   </si>
   <si>
     <t>ask.</t>
+  </si>
+  <si>
+    <t>what is Pytorch?; describe Pytorch?; tell me something about Pytorch?; do you know Pytorch?;</t>
+  </si>
+  <si>
+    <t>What is computer vision?; what is computer vision in AI?; describe computer vision in the field of AI; explain computer vision;</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59E91-381A-4288-8AAA-0174747CCACE}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1211,123 +1211,123 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
         <v>189</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
         <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
         <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
         <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
         <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
         <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
         <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1346,752 +1346,752 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
         <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
         <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
         <v>120</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
         <v>132</v>
       </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
         <v>153</v>
-      </c>
-      <c r="B65" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
         <v>156</v>
-      </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
-        <v>161</v>
-      </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" t="s">
         <v>162</v>
-      </c>
-      <c r="B68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
         <v>165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="B70" t="s">
-        <v>170</v>
-      </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
         <v>176</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
-      </c>
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
         <v>186</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
         <v>216</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
         <v>234</v>
-      </c>
-      <c r="C81" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
         <v>238</v>
-      </c>
-      <c r="C84" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
         <v>244</v>
-      </c>
-      <c r="B85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/content/Chatbot Intents.xlsx
+++ b/content/Chatbot Intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\hau-ai-powered-lms\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E8A72-570B-4F05-8FFE-1235424BB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC207F7-CC6B-4EB5-A866-6F3D79CAF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BB7CB1-154D-4315-B860-206F774AA722}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>ask.what_is_vuejs</t>
   </si>
   <si>
-    <t>What is vuejs?;</t>
-  </si>
-  <si>
     <t>Vue.js is an open-source model–view–viewmodel front end JavaScript framework for building user interfaces and single-page applications.;</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
   </si>
   <si>
     <t>greetings.awesome</t>
-  </si>
-  <si>
-    <t>That is awesome; that's awesome; cool; interesting fact; super cool;</t>
   </si>
   <si>
     <t>I know right!; I also think that its awesome;</t>
@@ -778,6 +772,12 @@
   </si>
   <si>
     <t>What is computer vision?; what is computer vision in AI?; describe computer vision in the field of AI; explain computer vision;</t>
+  </si>
+  <si>
+    <t>What is vuejs?; what is vue?; can you explain to me what is vue js?; explain vuejs?; describe vue?;</t>
+  </si>
+  <si>
+    <t>That is awesome; that's awesome; cool; interesting fact; super cool; awesome;</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,79 +1222,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
         <v>193</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
         <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
         <v>199</v>
-      </c>
-      <c r="B11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,32 +1302,32 @@
         <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
         <v>208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
         <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1357,7 +1357,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1382,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1522,7 +1522,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -1588,7 +1588,7 @@
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
         <v>80</v>
@@ -1676,10 +1676,10 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,351 +1709,351 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
         <v>118</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
         <v>127</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
         <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
         <v>139</v>
-      </c>
-      <c r="B61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
         <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
         <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>152</v>
-      </c>
-      <c r="C65" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
         <v>154</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>155</v>
-      </c>
-      <c r="C66" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
         <v>157</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>161</v>
-      </c>
-      <c r="C68" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
         <v>163</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>164</v>
-      </c>
-      <c r="C69" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
         <v>166</v>
-      </c>
-      <c r="B70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
         <v>169</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>170</v>
-      </c>
-      <c r="C71" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
         <v>172</v>
-      </c>
-      <c r="B72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
         <v>176</v>
-      </c>
-      <c r="C73" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
         <v>178</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>179</v>
-      </c>
-      <c r="C74" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
         <v>182</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" t="s">
         <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
         <v>214</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" t="s">
         <v>232</v>
-      </c>
-      <c r="C81" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,34 +2064,34 @@
         <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
         <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" t="s">
         <v>242</v>
-      </c>
-      <c r="B85" t="s">
-        <v>243</v>
-      </c>
-      <c r="C85" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
